--- a/Mechatronische Systeme in der Anwendung/Projekt/Messung Abstand.xlsx
+++ b/Mechatronische Systeme in der Anwendung/Projekt/Messung Abstand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusla\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_Projects\DHBW\Mechatronische Systeme in der Anwendung\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4815DF54-A758-4AC3-B4F0-1AE6B4C07515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15192982-4697-48B1-8C49-5A4A2B6CF981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="21600" windowHeight="12670" xr2:uid="{5DDA793B-9F12-475D-91E5-64B0274C807D}"/>
+    <workbookView xWindow="-13860" yWindow="1670" windowWidth="11150" windowHeight="15230" xr2:uid="{5DDA793B-9F12-475D-91E5-64B0274C807D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +87,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -100,6 +129,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C79354F2-F559-42E1-94C9-88724758237F}" name="Tabelle1" displayName="Tabelle1" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19" xr:uid="{C79354F2-F559-42E1-94C9-88724758237F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A2D149D1-D91E-44AB-B0DC-29E2A05787FC}" name="Abstand Zollstock"/>
+    <tableColumn id="2" xr3:uid="{932C0614-0CCC-41DC-9580-8CF0CCBB6E6A}" name="Abstand Messung"/>
+    <tableColumn id="3" xr3:uid="{7EE2949D-E7CA-4D03-9322-24F1BB25AD51}" name="Abweichung abs">
+      <calculatedColumnFormula>A2-B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3C9253D5-AD43-43D3-9C7D-CA40F0004574}" name="Abweichung rel" dataDxfId="0" dataCellStyle="Prozent">
+      <calculatedColumnFormula>C2/A2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,18 +468,18 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -458,12 +504,12 @@
         <f>A2-B2</f>
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>100*C2/A2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <f>C2/A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -474,12 +520,12 @@
         <f t="shared" ref="C3:C19" si="0">A3-B3</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D19" si="1">100*C3/A3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D19" si="1">C3/A3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -490,12 +536,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -506,12 +552,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -522,12 +568,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -538,12 +584,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -554,12 +600,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -570,12 +616,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -586,12 +632,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -602,12 +648,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -618,12 +664,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>120</v>
       </c>
@@ -634,12 +680,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>140</v>
       </c>
@@ -650,12 +696,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571426E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>160</v>
       </c>
@@ -666,12 +712,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>180</v>
       </c>
@@ -682,12 +728,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>200</v>
       </c>
@@ -698,12 +744,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>250</v>
       </c>
@@ -714,12 +760,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>300</v>
       </c>
@@ -730,12 +776,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666671E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>